--- a/bin/Assets/Resources/IngameData/LockObj.xlsx
+++ b/bin/Assets/Resources/IngameData/LockObj.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39EF254-20AD-4A4F-ADFB-C9CA2B41F2A9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF03312B-29B5-47AA-98B4-4D11ADB9798B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -619,7 +619,7 @@
         <v>18</v>
       </c>
       <c r="D5" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>19</v>
@@ -636,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>

--- a/bin/Assets/Resources/IngameData/LockObj.xlsx
+++ b/bin/Assets/Resources/IngameData/LockObj.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF03312B-29B5-47AA-98B4-4D11ADB9798B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B157E2-4867-4423-85E0-324961764F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="스크립트" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,18 @@
   </si>
   <si>
     <t>firstInteractString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손전등이다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너무 높아서 손이 닫질 않아…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,29 +547,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="12" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="29.375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="37.625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="33.25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="30.375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.19921875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="29.3984375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="37.59765625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="33.19921875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="30.3984375" style="12" customWidth="1"/>
     <col min="7" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -574,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -591,7 +603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -608,7 +620,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -625,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -640,6 +652,23 @@
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="12">
+        <v>2</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="12">
+        <v>4</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
